--- a/Data/Kisaveikkaus_2023_juulia.xlsx
+++ b/Data/Kisaveikkaus_2023_juulia.xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Irlanti</t>
   </si>
   <si>
-    <t xml:space="preserve">Samantha Kerr</t>
+    <t xml:space="preserve">Sam Kerr</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria</t>
@@ -632,24 +632,24 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.59"/>
   </cols>
   <sheetData>
@@ -2263,7 +2263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2286,7 +2286,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
